--- a/Ofis Dosyalari/HAKEDISLER/2025/AĞUSTOS 2025/2025 AĞUSTOS AYI - TÜRKLER.xlsx
+++ b/Ofis Dosyalari/HAKEDISLER/2025/AĞUSTOS 2025/2025 AĞUSTOS AYI - TÜRKLER.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\samil\OneDrive\Desktop\OfisDosyalariYedegi\Ofis Dosyalari\HAKEDISLER\2025\AĞUSTOS 2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95960682-8F6D-4608-84F5-ECF0C6164491}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A4C53A7-F4CF-4A0C-98AD-786DA6C442C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
     <t>№</t>
   </si>
@@ -125,13 +125,19 @@
     <t>DEMIRAYAK MERT</t>
   </si>
   <si>
-    <t>20.000 RUBLE AVANSTA</t>
-  </si>
-  <si>
     <t>2025 AĞUSTOS AYI TURKLER</t>
   </si>
   <si>
     <t>AĞUSTOS SAATI</t>
+  </si>
+  <si>
+    <t>TEMMUZDAN KALAN</t>
+  </si>
+  <si>
+    <t>HAZİRAN KALAN</t>
+  </si>
+  <si>
+    <t>EYLÜL AYINDA GİTTİ SADECE 1500 DOLAR ALDI</t>
   </si>
 </sst>
 </file>
@@ -205,7 +211,7 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
-        <bgColor rgb="FF993300"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -498,9 +504,6 @@
   </cellStyleXfs>
   <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -546,7 +549,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -589,6 +591,10 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -870,10 +876,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L16"/>
+  <dimension ref="A1:N16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+      <selection activeCell="N13" sqref="N13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="14.4"/>
@@ -883,473 +889,521 @@
     <col min="3" max="3" width="18.6640625" customWidth="1"/>
     <col min="4" max="4" width="9.109375" customWidth="1"/>
     <col min="5" max="5" width="7.109375" customWidth="1"/>
-    <col min="6" max="6" width="11" customWidth="1"/>
-    <col min="7" max="7" width="14.33203125" customWidth="1"/>
-    <col min="8" max="8" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11" customWidth="1"/>
     <col min="9" max="9" width="14.33203125" customWidth="1"/>
-    <col min="10" max="10" width="7.5546875" customWidth="1"/>
-    <col min="12" max="12" width="20.33203125" customWidth="1"/>
+    <col min="10" max="10" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.33203125" customWidth="1"/>
+    <col min="12" max="12" width="7.5546875" customWidth="1"/>
+    <col min="14" max="14" width="40" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15" thickBot="1">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:14" ht="15" thickBot="1">
+      <c r="A1" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="32"/>
+      <c r="I1" s="32"/>
+      <c r="J1" s="32"/>
+      <c r="K1" s="32"/>
+      <c r="L1" s="32"/>
+      <c r="M1" s="32"/>
+    </row>
+    <row r="2" spans="1:14" ht="43.8" thickBot="1">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
+      <c r="E2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="2" spans="1:12" ht="43.8" thickBot="1">
-      <c r="A2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="3" t="s">
+    <row r="3" spans="1:14">
+      <c r="A3" s="3">
         <v>1</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="B3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="6"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7">
+        <v>2500</v>
+      </c>
+      <c r="I3" s="8">
+        <f>H3*M3</f>
+        <v>212500</v>
+      </c>
+      <c r="J3" s="8"/>
+      <c r="K3" s="8">
+        <f t="shared" ref="K3:K14" si="0">I3-J3</f>
+        <v>212500</v>
+      </c>
+      <c r="L3" s="26"/>
+      <c r="M3" s="29">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
+      <c r="A4" s="9">
         <v>2</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
-      <c r="A3" s="4">
-        <v>1</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" s="7"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8">
+      <c r="B4" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="12"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="13">
         <v>2500</v>
       </c>
-      <c r="G3" s="9">
-        <f t="shared" ref="G3:G14" si="0">F3*K3</f>
+      <c r="I4" s="14">
+        <f>H4*M4</f>
         <v>212500</v>
       </c>
-      <c r="H3" s="9"/>
-      <c r="I3" s="9">
-        <f t="shared" ref="I3:I14" si="1">G3-H3</f>
-        <v>212500</v>
-      </c>
-      <c r="J3" s="28"/>
-      <c r="K3" s="31">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
-      <c r="A4" s="10">
-        <v>2</v>
-      </c>
-      <c r="B4" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" s="13"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14">
-        <v>2500</v>
-      </c>
-      <c r="G4" s="15">
+      <c r="J4" s="14"/>
+      <c r="K4" s="14">
         <f t="shared" si="0"/>
         <v>212500</v>
       </c>
-      <c r="H4" s="15"/>
-      <c r="I4" s="15">
+      <c r="L4" s="27"/>
+      <c r="M4" s="30">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
+      <c r="A5" s="9">
+        <v>3</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="12">
+        <v>334</v>
+      </c>
+      <c r="E5" s="13">
+        <v>7</v>
+      </c>
+      <c r="F5" s="13">
+        <v>1284</v>
+      </c>
+      <c r="G5" s="13"/>
+      <c r="H5" s="13">
+        <f>(D5*E5)+F5+G5</f>
+        <v>3622</v>
+      </c>
+      <c r="I5" s="14">
+        <f>H5*M5</f>
+        <v>307870</v>
+      </c>
+      <c r="J5" s="14"/>
+      <c r="K5" s="14">
+        <f t="shared" si="0"/>
+        <v>307870</v>
+      </c>
+      <c r="L5" s="27"/>
+      <c r="M5" s="30">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
+      <c r="A6" s="9">
+        <v>4</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="12">
+        <v>311</v>
+      </c>
+      <c r="E6" s="13">
+        <v>7</v>
+      </c>
+      <c r="F6" s="13">
+        <v>1375</v>
+      </c>
+      <c r="G6" s="13"/>
+      <c r="H6" s="13">
+        <f t="shared" ref="H6:H13" si="1">(D6*E6)+F6+G6</f>
+        <v>3552</v>
+      </c>
+      <c r="I6" s="14">
+        <f>H6*M6</f>
+        <v>301920</v>
+      </c>
+      <c r="J6" s="14"/>
+      <c r="K6" s="14">
+        <f t="shared" si="0"/>
+        <v>301920</v>
+      </c>
+      <c r="L6" s="27"/>
+      <c r="M6" s="30">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
+      <c r="A7" s="9">
+        <v>5</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="12">
+        <v>0</v>
+      </c>
+      <c r="E7" s="13">
+        <v>6</v>
+      </c>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="13">
         <f t="shared" si="1"/>
-        <v>212500</v>
-      </c>
-      <c r="J4" s="29"/>
-      <c r="K4" s="32">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
-      <c r="A5" s="10">
-        <v>3</v>
-      </c>
-      <c r="B5" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" s="13">
-        <v>334</v>
-      </c>
-      <c r="E5" s="14">
-        <v>7</v>
-      </c>
-      <c r="F5" s="14">
-        <f>D5*E5</f>
-        <v>2338</v>
-      </c>
-      <c r="G5" s="15">
-        <f t="shared" si="0"/>
-        <v>198730</v>
-      </c>
-      <c r="H5" s="15"/>
-      <c r="I5" s="15">
-        <f t="shared" si="1"/>
-        <v>198730</v>
-      </c>
-      <c r="J5" s="29"/>
-      <c r="K5" s="32">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
-      <c r="A6" s="10">
-        <v>4</v>
-      </c>
-      <c r="B6" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="D6" s="13">
-        <v>311</v>
-      </c>
-      <c r="E6" s="14">
-        <v>7</v>
-      </c>
-      <c r="F6" s="14">
-        <f>D6*E6</f>
-        <v>2177</v>
-      </c>
-      <c r="G6" s="15">
-        <f t="shared" si="0"/>
-        <v>185045</v>
-      </c>
-      <c r="H6" s="15"/>
-      <c r="I6" s="15">
-        <f t="shared" si="1"/>
-        <v>185045</v>
-      </c>
-      <c r="J6" s="29"/>
-      <c r="K6" s="32">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
-      <c r="A7" s="10">
-        <v>5</v>
-      </c>
-      <c r="B7" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="C7" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="D7" s="13">
         <v>0</v>
       </c>
-      <c r="E7" s="14">
-        <v>6</v>
-      </c>
-      <c r="F7" s="14">
-        <f>D7*E7</f>
+      <c r="I7" s="14">
+        <f>H7*M7</f>
         <v>0</v>
       </c>
-      <c r="G7" s="15">
+      <c r="J7" s="14"/>
+      <c r="K7" s="14">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H7" s="15"/>
-      <c r="I7" s="15">
+      <c r="L7" s="27"/>
+      <c r="M7" s="30">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
+      <c r="A8" s="9">
+        <v>6</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" s="12">
+        <v>333</v>
+      </c>
+      <c r="E8" s="13">
+        <v>7</v>
+      </c>
+      <c r="F8" s="13">
+        <v>1368</v>
+      </c>
+      <c r="G8" s="13">
+        <v>2660</v>
+      </c>
+      <c r="H8" s="13">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J7" s="29"/>
-      <c r="K7" s="32">
+        <v>6359</v>
+      </c>
+      <c r="I8" s="14">
+        <f>H8*M8</f>
+        <v>540515</v>
+      </c>
+      <c r="J8" s="14"/>
+      <c r="K8" s="14">
+        <f t="shared" si="0"/>
+        <v>540515</v>
+      </c>
+      <c r="L8" s="27"/>
+      <c r="M8" s="30">
         <v>85</v>
       </c>
     </row>
-    <row r="8" spans="1:12">
-      <c r="A8" s="10">
-        <v>6</v>
-      </c>
-      <c r="B8" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="D8" s="13">
-        <v>333</v>
-      </c>
-      <c r="E8" s="14">
+    <row r="9" spans="1:14">
+      <c r="A9" s="9">
         <v>7</v>
       </c>
-      <c r="F8" s="14">
-        <f>D8*E8</f>
-        <v>2331</v>
-      </c>
-      <c r="G8" s="15">
+      <c r="B9" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" s="12">
+        <v>319</v>
+      </c>
+      <c r="E9" s="13">
+        <v>7</v>
+      </c>
+      <c r="F9" s="13">
+        <v>1144</v>
+      </c>
+      <c r="G9" s="13"/>
+      <c r="H9" s="13">
+        <f t="shared" si="1"/>
+        <v>3377</v>
+      </c>
+      <c r="I9" s="14">
+        <f t="shared" ref="I9:I14" si="2">H9*M9</f>
+        <v>287045</v>
+      </c>
+      <c r="J9" s="14"/>
+      <c r="K9" s="14">
         <f t="shared" si="0"/>
-        <v>198135</v>
-      </c>
-      <c r="H8" s="15"/>
-      <c r="I8" s="15">
-        <f t="shared" si="1"/>
-        <v>198135</v>
-      </c>
-      <c r="J8" s="29"/>
-      <c r="K8" s="32">
+        <v>287045</v>
+      </c>
+      <c r="L9" s="27"/>
+      <c r="M9" s="30">
         <v>85</v>
       </c>
     </row>
-    <row r="9" spans="1:12">
-      <c r="A9" s="10">
-        <v>7</v>
-      </c>
-      <c r="B9" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" s="13">
-        <v>319</v>
-      </c>
-      <c r="E9" s="14">
-        <v>7</v>
-      </c>
-      <c r="F9" s="14">
-        <f>D9*E9</f>
-        <v>2233</v>
-      </c>
-      <c r="G9" s="15">
-        <f t="shared" si="0"/>
-        <v>189805</v>
-      </c>
-      <c r="H9" s="15"/>
-      <c r="I9" s="15">
-        <f t="shared" si="1"/>
-        <v>189805</v>
-      </c>
-      <c r="J9" s="29"/>
-      <c r="K9" s="32">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
-      <c r="A10" s="10">
+    <row r="10" spans="1:14">
+      <c r="A10" s="9">
         <v>8</v>
       </c>
-      <c r="B10" s="11">
+      <c r="B10" s="10">
         <v>263</v>
       </c>
-      <c r="C10" s="12" t="s">
+      <c r="C10" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="D10" s="13"/>
-      <c r="E10" s="14"/>
-      <c r="F10" s="14">
+      <c r="D10" s="12"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="13"/>
+      <c r="H10" s="13">
         <v>2000</v>
       </c>
-      <c r="G10" s="15">
+      <c r="I10" s="14">
+        <f t="shared" si="2"/>
+        <v>170000</v>
+      </c>
+      <c r="J10" s="14"/>
+      <c r="K10" s="14">
         <f t="shared" si="0"/>
         <v>170000</v>
       </c>
-      <c r="H10" s="15"/>
-      <c r="I10" s="15">
+      <c r="L10" s="27"/>
+      <c r="M10" s="30">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
+      <c r="A11" s="9">
+        <v>9</v>
+      </c>
+      <c r="B11" s="10">
+        <v>282</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" s="12">
+        <v>362</v>
+      </c>
+      <c r="E11" s="13">
+        <v>7</v>
+      </c>
+      <c r="F11" s="13">
+        <v>1269</v>
+      </c>
+      <c r="G11" s="13"/>
+      <c r="H11" s="13">
         <f t="shared" si="1"/>
-        <v>170000</v>
-      </c>
-      <c r="J10" s="29"/>
-      <c r="K10" s="32">
+        <v>3803</v>
+      </c>
+      <c r="I11" s="14">
+        <f t="shared" si="2"/>
+        <v>323255</v>
+      </c>
+      <c r="J11" s="14"/>
+      <c r="K11" s="14">
+        <f t="shared" si="0"/>
+        <v>323255</v>
+      </c>
+      <c r="L11" s="27"/>
+      <c r="M11" s="30">
         <v>85</v>
       </c>
+      <c r="N11" s="33" t="s">
+        <v>33</v>
+      </c>
     </row>
-    <row r="11" spans="1:12">
-      <c r="A11" s="10">
-        <v>9</v>
-      </c>
-      <c r="B11" s="11">
-        <v>282</v>
-      </c>
-      <c r="C11" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" s="13">
-        <v>362</v>
-      </c>
-      <c r="E11" s="14">
+    <row r="12" spans="1:14">
+      <c r="A12" s="9">
+        <v>10</v>
+      </c>
+      <c r="B12" s="10">
+        <v>283</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" s="12">
+        <v>139</v>
+      </c>
+      <c r="E12" s="13">
         <v>7</v>
       </c>
-      <c r="F11" s="14">
-        <f>D11*E11</f>
-        <v>2534</v>
-      </c>
-      <c r="G11" s="15">
-        <f t="shared" si="0"/>
-        <v>215390</v>
-      </c>
-      <c r="H11" s="15"/>
-      <c r="I11" s="15">
+      <c r="F12" s="13"/>
+      <c r="G12" s="13"/>
+      <c r="H12" s="13">
         <f t="shared" si="1"/>
-        <v>215390</v>
-      </c>
-      <c r="J11" s="29"/>
-      <c r="K11" s="32">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
-      <c r="A12" s="10">
-        <v>10</v>
-      </c>
-      <c r="B12" s="11">
-        <v>283</v>
-      </c>
-      <c r="C12" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="D12" s="13">
-        <v>139</v>
-      </c>
-      <c r="E12" s="14">
-        <v>7</v>
-      </c>
-      <c r="F12" s="14">
-        <f>D12*E12</f>
         <v>973</v>
       </c>
-      <c r="G12" s="15">
+      <c r="I12" s="14">
+        <f t="shared" si="2"/>
+        <v>82705</v>
+      </c>
+      <c r="J12" s="14"/>
+      <c r="K12" s="14">
         <f t="shared" si="0"/>
         <v>82705</v>
       </c>
-      <c r="H12" s="15"/>
-      <c r="I12" s="15">
+      <c r="L12" s="27"/>
+      <c r="M12" s="30">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14">
+      <c r="A13" s="9">
+        <v>11</v>
+      </c>
+      <c r="B13" s="10">
+        <v>360</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" s="12">
+        <v>256</v>
+      </c>
+      <c r="E13" s="13">
+        <v>6</v>
+      </c>
+      <c r="F13" s="13">
+        <v>737</v>
+      </c>
+      <c r="G13" s="13"/>
+      <c r="H13" s="13">
         <f t="shared" si="1"/>
-        <v>82705</v>
-      </c>
-      <c r="J12" s="29"/>
-      <c r="K12" s="32">
+        <v>2273</v>
+      </c>
+      <c r="I13" s="14">
+        <f t="shared" si="2"/>
+        <v>193205</v>
+      </c>
+      <c r="J13" s="14"/>
+      <c r="K13" s="14">
+        <f t="shared" si="0"/>
+        <v>193205</v>
+      </c>
+      <c r="L13" s="27"/>
+      <c r="M13" s="30">
         <v>85</v>
       </c>
     </row>
-    <row r="13" spans="1:12">
-      <c r="A13" s="10">
-        <v>11</v>
-      </c>
-      <c r="B13" s="11">
-        <v>360</v>
-      </c>
-      <c r="C13" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="D13" s="13">
-        <v>256</v>
-      </c>
-      <c r="E13" s="14">
-        <v>6</v>
-      </c>
-      <c r="F13" s="14">
-        <f>D13*E13</f>
-        <v>1536</v>
-      </c>
-      <c r="G13" s="15">
+    <row r="14" spans="1:14" ht="15" thickBot="1">
+      <c r="A14" s="16">
+        <v>12</v>
+      </c>
+      <c r="B14" s="17">
+        <v>387</v>
+      </c>
+      <c r="C14" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="D14" s="19"/>
+      <c r="E14" s="20"/>
+      <c r="F14" s="20"/>
+      <c r="G14" s="20"/>
+      <c r="H14" s="21">
+        <v>1000</v>
+      </c>
+      <c r="I14" s="22">
+        <f t="shared" si="2"/>
+        <v>85000</v>
+      </c>
+      <c r="J14" s="22">
+        <v>20000</v>
+      </c>
+      <c r="K14" s="22">
         <f t="shared" si="0"/>
-        <v>130560</v>
-      </c>
-      <c r="H13" s="15"/>
-      <c r="I13" s="15">
-        <f t="shared" si="1"/>
-        <v>130560</v>
-      </c>
-      <c r="J13" s="29"/>
-      <c r="K13" s="32">
+        <v>65000</v>
+      </c>
+      <c r="L14" s="28"/>
+      <c r="M14" s="31">
         <v>85</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="15" thickBot="1">
-      <c r="A14" s="18">
-        <v>12</v>
-      </c>
-      <c r="B14" s="19">
-        <v>387</v>
-      </c>
-      <c r="C14" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="D14" s="21"/>
-      <c r="E14" s="22"/>
-      <c r="F14" s="23">
-        <v>0</v>
-      </c>
-      <c r="G14" s="24">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H14" s="24">
-        <v>20000</v>
-      </c>
-      <c r="I14" s="24">
-        <f t="shared" si="1"/>
-        <v>-20000</v>
-      </c>
-      <c r="J14" s="30"/>
-      <c r="K14" s="33">
-        <v>85</v>
-      </c>
-      <c r="L14" s="17" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" ht="15" thickBot="1"/>
-    <row r="16" spans="1:12" ht="15" thickBot="1">
-      <c r="F16" s="25">
-        <f>SUM(F3:F15)</f>
-        <v>21122</v>
-      </c>
-      <c r="G16" s="26"/>
-      <c r="H16" s="26"/>
-      <c r="I16" s="27">
-        <f>SUM(I3:I15)</f>
-        <v>1775370</v>
+    <row r="15" spans="1:14" ht="15" thickBot="1"/>
+    <row r="16" spans="1:14" ht="15" thickBot="1">
+      <c r="H16" s="23">
+        <f>SUM(H3:H15)</f>
+        <v>31959</v>
+      </c>
+      <c r="I16" s="24"/>
+      <c r="J16" s="24"/>
+      <c r="K16" s="25">
+        <f>SUM(K3:K15)</f>
+        <v>2696515</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A1:M1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Ofis Dosyalari/HAKEDISLER/2025/AĞUSTOS 2025/2025 AĞUSTOS AYI - TÜRKLER.xlsx
+++ b/Ofis Dosyalari/HAKEDISLER/2025/AĞUSTOS 2025/2025 AĞUSTOS AYI - TÜRKLER.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\samil\OneDrive\Desktop\OfisDosyalariYedegi\Ofis Dosyalari\HAKEDISLER\2025\AĞUSTOS 2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A4C53A7-F4CF-4A0C-98AD-786DA6C442C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BD70D8D-E214-4A5B-A069-E11B61A40B9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -462,9 +462,11 @@
       <left style="thin">
         <color auto="1"/>
       </left>
-      <right/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
       <top style="medium">
-        <color auto="1"/>
+        <color indexed="64"/>
       </top>
       <bottom style="thin">
         <color auto="1"/>
@@ -475,7 +477,9 @@
       <left style="thin">
         <color auto="1"/>
       </left>
-      <right/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color auto="1"/>
       </top>
@@ -488,12 +492,14 @@
       <left style="thin">
         <color auto="1"/>
       </left>
-      <right/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color auto="1"/>
       </top>
       <bottom style="medium">
-        <color auto="1"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -502,7 +508,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -573,15 +579,6 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -591,10 +588,28 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -879,7 +894,7 @@
   <dimension ref="A1:N16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N13" sqref="N13"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="14.4"/>
@@ -900,21 +915,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15" thickBot="1">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="30" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
-      <c r="H1" s="32"/>
-      <c r="I1" s="32"/>
-      <c r="J1" s="32"/>
-      <c r="K1" s="32"/>
-      <c r="L1" s="32"/>
-      <c r="M1" s="32"/>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="30"/>
+      <c r="J1" s="30"/>
+      <c r="K1" s="30"/>
+      <c r="L1" s="30"/>
+      <c r="M1" s="30"/>
     </row>
     <row r="2" spans="1:14" ht="43.8" thickBot="1">
       <c r="A2" s="1" t="s">
@@ -969,22 +984,24 @@
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
+      <c r="F3" s="7">
+        <v>1883</v>
+      </c>
       <c r="G3" s="7"/>
       <c r="H3" s="7">
         <v>2500</v>
       </c>
       <c r="I3" s="8">
-        <f>H3*M3</f>
-        <v>212500</v>
+        <f>(F3+H3)*M3</f>
+        <v>372555</v>
       </c>
       <c r="J3" s="8"/>
-      <c r="K3" s="8">
+      <c r="K3" s="34">
         <f t="shared" ref="K3:K14" si="0">I3-J3</f>
-        <v>212500</v>
-      </c>
-      <c r="L3" s="26"/>
-      <c r="M3" s="29">
+        <v>372555</v>
+      </c>
+      <c r="L3" s="31"/>
+      <c r="M3" s="26">
         <v>85</v>
       </c>
     </row>
@@ -1000,22 +1017,24 @@
       </c>
       <c r="D4" s="12"/>
       <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
+      <c r="F4" s="13">
+        <v>1142</v>
+      </c>
       <c r="G4" s="13"/>
       <c r="H4" s="13">
         <v>2500</v>
       </c>
       <c r="I4" s="14">
-        <f>H4*M4</f>
-        <v>212500</v>
+        <f>(F4+H4)*M4</f>
+        <v>309570</v>
       </c>
       <c r="J4" s="14"/>
-      <c r="K4" s="14">
+      <c r="K4" s="35">
         <f t="shared" si="0"/>
-        <v>212500</v>
-      </c>
-      <c r="L4" s="27"/>
-      <c r="M4" s="30">
+        <v>309570</v>
+      </c>
+      <c r="L4" s="32"/>
+      <c r="M4" s="27">
         <v>85</v>
       </c>
     </row>
@@ -1044,16 +1063,16 @@
         <v>3622</v>
       </c>
       <c r="I5" s="14">
-        <f>H5*M5</f>
+        <f t="shared" ref="I3:I8" si="1">H5*M5</f>
         <v>307870</v>
       </c>
       <c r="J5" s="14"/>
-      <c r="K5" s="14">
+      <c r="K5" s="35">
         <f t="shared" si="0"/>
         <v>307870</v>
       </c>
-      <c r="L5" s="27"/>
-      <c r="M5" s="30">
+      <c r="L5" s="32"/>
+      <c r="M5" s="27">
         <v>85</v>
       </c>
     </row>
@@ -1078,20 +1097,20 @@
       </c>
       <c r="G6" s="13"/>
       <c r="H6" s="13">
-        <f t="shared" ref="H6:H13" si="1">(D6*E6)+F6+G6</f>
+        <f t="shared" ref="H6:H13" si="2">(D6*E6)+F6+G6</f>
         <v>3552</v>
       </c>
       <c r="I6" s="14">
-        <f>H6*M6</f>
+        <f t="shared" si="1"/>
         <v>301920</v>
       </c>
       <c r="J6" s="14"/>
-      <c r="K6" s="14">
+      <c r="K6" s="35">
         <f t="shared" si="0"/>
         <v>301920</v>
       </c>
-      <c r="L6" s="27"/>
-      <c r="M6" s="30">
+      <c r="L6" s="32"/>
+      <c r="M6" s="27">
         <v>85</v>
       </c>
     </row>
@@ -1114,20 +1133,20 @@
       <c r="F7" s="13"/>
       <c r="G7" s="13"/>
       <c r="H7" s="13">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I7" s="14">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I7" s="14">
-        <f>H7*M7</f>
-        <v>0</v>
-      </c>
       <c r="J7" s="14"/>
-      <c r="K7" s="14">
+      <c r="K7" s="35">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L7" s="27"/>
-      <c r="M7" s="30">
+      <c r="L7" s="32"/>
+      <c r="M7" s="27">
         <v>85</v>
       </c>
     </row>
@@ -1154,20 +1173,20 @@
         <v>2660</v>
       </c>
       <c r="H8" s="13">
+        <f t="shared" si="2"/>
+        <v>6359</v>
+      </c>
+      <c r="I8" s="14">
         <f t="shared" si="1"/>
-        <v>6359</v>
-      </c>
-      <c r="I8" s="14">
-        <f>H8*M8</f>
         <v>540515</v>
       </c>
       <c r="J8" s="14"/>
-      <c r="K8" s="14">
+      <c r="K8" s="35">
         <f t="shared" si="0"/>
         <v>540515</v>
       </c>
-      <c r="L8" s="27"/>
-      <c r="M8" s="30">
+      <c r="L8" s="32"/>
+      <c r="M8" s="27">
         <v>85</v>
       </c>
     </row>
@@ -1192,20 +1211,20 @@
       </c>
       <c r="G9" s="13"/>
       <c r="H9" s="13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3377</v>
       </c>
       <c r="I9" s="14">
-        <f t="shared" ref="I9:I14" si="2">H9*M9</f>
+        <f t="shared" ref="I9:I14" si="3">H9*M9</f>
         <v>287045</v>
       </c>
       <c r="J9" s="14"/>
-      <c r="K9" s="14">
+      <c r="K9" s="35">
         <f t="shared" si="0"/>
         <v>287045</v>
       </c>
-      <c r="L9" s="27"/>
-      <c r="M9" s="30">
+      <c r="L9" s="32"/>
+      <c r="M9" s="27">
         <v>85</v>
       </c>
     </row>
@@ -1227,16 +1246,16 @@
         <v>2000</v>
       </c>
       <c r="I10" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>170000</v>
       </c>
       <c r="J10" s="14"/>
-      <c r="K10" s="14">
+      <c r="K10" s="35">
         <f t="shared" si="0"/>
         <v>170000</v>
       </c>
-      <c r="L10" s="27"/>
-      <c r="M10" s="30">
+      <c r="L10" s="32"/>
+      <c r="M10" s="27">
         <v>85</v>
       </c>
     </row>
@@ -1261,23 +1280,23 @@
       </c>
       <c r="G11" s="13"/>
       <c r="H11" s="13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3803</v>
       </c>
       <c r="I11" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>323255</v>
       </c>
       <c r="J11" s="14"/>
-      <c r="K11" s="14">
+      <c r="K11" s="35">
         <f t="shared" si="0"/>
         <v>323255</v>
       </c>
-      <c r="L11" s="27"/>
-      <c r="M11" s="30">
+      <c r="L11" s="32"/>
+      <c r="M11" s="27">
         <v>85</v>
       </c>
-      <c r="N11" s="33" t="s">
+      <c r="N11" s="29" t="s">
         <v>33</v>
       </c>
     </row>
@@ -1297,23 +1316,25 @@
       <c r="E12" s="13">
         <v>7</v>
       </c>
-      <c r="F12" s="13"/>
+      <c r="F12" s="13">
+        <v>597</v>
+      </c>
       <c r="G12" s="13"/>
       <c r="H12" s="13">
-        <f t="shared" si="1"/>
-        <v>973</v>
+        <f t="shared" si="2"/>
+        <v>1570</v>
       </c>
       <c r="I12" s="14">
-        <f t="shared" si="2"/>
-        <v>82705</v>
+        <f t="shared" si="3"/>
+        <v>133450</v>
       </c>
       <c r="J12" s="14"/>
-      <c r="K12" s="14">
+      <c r="K12" s="35">
         <f t="shared" si="0"/>
-        <v>82705</v>
-      </c>
-      <c r="L12" s="27"/>
-      <c r="M12" s="30">
+        <v>133450</v>
+      </c>
+      <c r="L12" s="32"/>
+      <c r="M12" s="27">
         <v>85</v>
       </c>
     </row>
@@ -1338,20 +1359,20 @@
       </c>
       <c r="G13" s="13"/>
       <c r="H13" s="13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2273</v>
       </c>
       <c r="I13" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>193205</v>
       </c>
       <c r="J13" s="14"/>
-      <c r="K13" s="14">
+      <c r="K13" s="35">
         <f t="shared" si="0"/>
         <v>193205</v>
       </c>
-      <c r="L13" s="27"/>
-      <c r="M13" s="30">
+      <c r="L13" s="32"/>
+      <c r="M13" s="27">
         <v>85</v>
       </c>
     </row>
@@ -1373,18 +1394,18 @@
         <v>1000</v>
       </c>
       <c r="I14" s="22">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>85000</v>
       </c>
       <c r="J14" s="22">
         <v>20000</v>
       </c>
-      <c r="K14" s="22">
+      <c r="K14" s="36">
         <f t="shared" si="0"/>
         <v>65000</v>
       </c>
-      <c r="L14" s="28"/>
-      <c r="M14" s="31">
+      <c r="L14" s="33"/>
+      <c r="M14" s="28">
         <v>85</v>
       </c>
     </row>
@@ -1392,13 +1413,13 @@
     <row r="16" spans="1:14" ht="15" thickBot="1">
       <c r="H16" s="23">
         <f>SUM(H3:H15)</f>
-        <v>31959</v>
+        <v>32556</v>
       </c>
       <c r="I16" s="24"/>
       <c r="J16" s="24"/>
       <c r="K16" s="25">
         <f>SUM(K3:K15)</f>
-        <v>2696515</v>
+        <v>3004385</v>
       </c>
     </row>
   </sheetData>
